--- a/public/uploads/615586b36c85ee54815be0f58494e669.xlsx
+++ b/public/uploads/615586b36c85ee54815be0f58494e669.xlsx
@@ -21,7 +21,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">题目</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">选项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">d</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">答案</t>
+  </si>
   <si>
     <t xml:space="preserve">dsafsaf</t>
   </si>
@@ -38,13 +132,25 @@
     <t xml:space="preserve">dd</t>
   </si>
   <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
-    <t xml:space="preserve">d,c</t>
+    <t xml:space="preserve">提示：一定要严格按照表格格式，继续往下填写！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">答案：答案必须为小写字母</t>
+  </si>
+  <si>
+    <t xml:space="preserve">多选题请在另一页填写</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c,d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">答案：答案必须为小写</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单选题请在另一页填写</t>
   </si>
 </sst>
 </file>
@@ -60,6 +166,7 @@
       <color rgb="FF000000"/>
       <name val="AR PL UKai CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -84,18 +191,26 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="AR PL UKai CN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +247,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,8 +260,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -162,17 +281,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0927835051546"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="4.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.98969072164948"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8350515463918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2061855670103"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8659793814433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3298969072165"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2731958762887"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2938144329897"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,23 +318,36 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -231,17 +366,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0927835051546"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="4.3659793814433"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.98453608247423"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.7783505154639"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3092783505155"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.340206185567"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.56701030927835"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1494845360825"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.19072164948454"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,27 +399,40 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
